--- a/Alkioiden listaustulokset.xlsx
+++ b/Alkioiden listaustulokset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\public_html\tietorakenteet ja algoritmit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K2940\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15195" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
-  <si>
-    <t>alkioita 2500</t>
-  </si>
-  <si>
-    <t>keskari</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>s</t>
   </si>
   <si>
     <t>Mittaus</t>
+  </si>
+  <si>
+    <t>mittaus</t>
+  </si>
+  <si>
+    <t>keskiarvo</t>
+  </si>
+  <si>
+    <t>4.73600</t>
+  </si>
+  <si>
+    <t>4.55099</t>
+  </si>
+  <si>
+    <t>4.76699</t>
+  </si>
+  <si>
+    <t>Intel Core i7-6700 @ 3.40GHz</t>
+  </si>
+  <si>
+    <t>alkioita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core 2 quad CPU Q9550 @2.83 GHz </t>
+  </si>
+  <si>
+    <t>Keskiarvo</t>
+  </si>
+  <si>
+    <t>Aika (s)</t>
+  </si>
+  <si>
+    <t>Luokka D 331</t>
+  </si>
+  <si>
+    <t>Luokka D422</t>
+  </si>
+  <si>
+    <t>Kuplalajittelu</t>
+  </si>
+  <si>
+    <t>Best case</t>
+  </si>
+  <si>
+    <t>Avg case</t>
+  </si>
+  <si>
+    <t>Worst case</t>
+  </si>
+  <si>
+    <t>Algoritmi</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Data Sturcture</t>
   </si>
 </sst>
 </file>
@@ -43,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,9 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,90 +416,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="B6:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2500</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.6258999999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2500</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.0519999999999996</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2500</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.5879999999999992</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2500</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4.4570000099999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2500</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8.6258999999999997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8.5879999999999992</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D13" s="2">
+        <v>8.5190000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2500</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>8.5190000000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2500</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
         <v>8.0829900000000006</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2500</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2500</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
         <v>8.7629999999999999</v>
       </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <f>AVERAGE(B3:B7)</f>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2500</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(D11:D15)</f>
         <v>8.515778000000001</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <f>AVERAGE(I11:I15)</f>
+        <v>4.7545000049999997</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
